--- a/Instances/Fixed_vehicles.xlsx
+++ b/Instances/Fixed_vehicles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25825"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Intermodal\Case study\vs. Wenjing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07ed5a09c14e9223/BEP/Bestanden Bilge/Instances (Synchromodal transport planning with flexible services Mathematical model and heuristic approach)/Instances/6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_658B604C695716F644750F9D6C15EC00C552F99E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="11_658B604C695716F644750F9D6C15EC00C552F99E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C9E2F49-1CC5-4651-A25B-40D04D841CA9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4650" windowHeight="1560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" tabRatio="857" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FixedK" sheetId="117" r:id="rId1"/>
@@ -131,12 +131,25 @@
     <sheet name="Truck33" sheetId="115" r:id="rId116"/>
     <sheet name="Truck34" sheetId="116" r:id="rId117"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="131">
   <si>
     <t>FixedK</t>
   </si>
@@ -526,13 +539,16 @@
   </si>
   <si>
     <t>Willebroek</t>
+  </si>
+  <si>
+    <t>K</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,6 +560,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -588,7 +605,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -601,6 +618,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -888,596 +909,947 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A117"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:1">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1492,20 +1864,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -1516,7 +1888,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -1538,20 +1910,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -1562,7 +1934,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>125</v>
       </c>
@@ -1584,20 +1956,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -1608,7 +1980,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -1630,20 +2002,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -1654,7 +2026,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -1676,20 +2048,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -1700,7 +2072,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -1722,20 +2094,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -1746,7 +2118,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -1768,20 +2140,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -1792,7 +2164,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -1814,20 +2186,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -1838,7 +2210,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>124</v>
       </c>
@@ -1860,20 +2232,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -1884,7 +2256,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>125</v>
       </c>
@@ -1906,20 +2278,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -1930,7 +2302,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -1952,20 +2324,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -1976,7 +2348,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -1998,20 +2370,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -2022,7 +2394,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -2044,20 +2416,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -2068,7 +2440,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -2090,20 +2462,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -2114,7 +2486,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -2136,20 +2508,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -2160,7 +2532,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -2182,20 +2554,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -2206,7 +2578,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>124</v>
       </c>
@@ -2228,20 +2600,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -2252,7 +2624,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>125</v>
       </c>
@@ -2274,20 +2646,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>122</v>
       </c>
@@ -2298,7 +2670,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -2320,20 +2692,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>122</v>
       </c>
@@ -2344,7 +2716,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>124</v>
       </c>
@@ -2366,20 +2738,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>122</v>
       </c>
@@ -2390,7 +2762,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>125</v>
       </c>
@@ -2412,20 +2784,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -2436,7 +2808,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -2458,20 +2830,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -2482,7 +2854,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -2504,20 +2876,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -2528,7 +2900,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -2550,20 +2922,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -2574,7 +2946,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>124</v>
       </c>
@@ -2596,20 +2968,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -2620,7 +2992,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>125</v>
       </c>
@@ -2642,20 +3014,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -2666,7 +3038,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>125</v>
       </c>
@@ -2688,20 +3060,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -2712,7 +3084,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -2734,20 +3106,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -2758,7 +3130,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -2780,20 +3152,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -2804,7 +3176,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -2826,20 +3198,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -2850,7 +3222,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -2872,20 +3244,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -2896,7 +3268,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -2918,20 +3290,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -2942,7 +3314,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -2964,20 +3336,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -2988,7 +3360,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>124</v>
       </c>
@@ -3010,20 +3382,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -3034,7 +3406,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>125</v>
       </c>
@@ -3056,20 +3428,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -3080,7 +3452,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -3102,20 +3474,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -3126,7 +3498,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -3148,20 +3520,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -3172,7 +3544,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -3194,20 +3566,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -3218,7 +3590,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -3240,20 +3612,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -3264,7 +3636,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -3286,20 +3658,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -3310,7 +3682,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -3332,20 +3704,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -3356,7 +3728,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -3378,20 +3750,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -3402,7 +3774,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>124</v>
       </c>
@@ -3424,20 +3796,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -3448,7 +3820,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>125</v>
       </c>
@@ -3470,20 +3842,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>122</v>
       </c>
@@ -3494,7 +3866,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>124</v>
       </c>
@@ -3516,20 +3888,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>122</v>
       </c>
@@ -3540,7 +3912,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>125</v>
       </c>
@@ -3562,20 +3934,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -3586,7 +3958,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>126</v>
       </c>
@@ -3608,20 +3980,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -3632,7 +4004,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -3652,22 +4024,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -3678,7 +4052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -3698,22 +4072,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -3724,7 +4100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -3744,22 +4120,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -3770,7 +4148,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -3792,20 +4170,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -3816,7 +4194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -3836,22 +4214,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -3862,7 +4242,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -3882,22 +4262,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -3908,7 +4290,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -3928,22 +4310,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -3954,7 +4338,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -3974,22 +4358,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -4000,7 +4386,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -4020,22 +4406,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -4046,7 +4434,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -4066,22 +4454,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -4092,7 +4482,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -4112,22 +4502,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -4138,7 +4530,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -4158,22 +4550,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -4184,7 +4578,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -4204,22 +4598,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -4230,7 +4626,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -4250,22 +4646,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -4276,7 +4674,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -4298,20 +4696,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -4322,7 +4720,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -4342,22 +4740,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -4368,7 +4768,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -4388,22 +4788,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -4414,7 +4816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -4436,20 +4838,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -4460,7 +4862,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -4482,20 +4884,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -4506,7 +4908,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -4528,20 +4930,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -4552,7 +4954,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -4574,20 +4976,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -4598,7 +5000,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -4620,20 +5022,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -4644,7 +5046,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -4666,20 +5068,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -4690,7 +5092,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -4712,20 +5114,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -4736,7 +5138,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -4758,20 +5160,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -4782,7 +5184,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -4804,20 +5206,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -4828,7 +5230,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -4850,20 +5252,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -4874,7 +5276,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -4896,20 +5298,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -4920,7 +5322,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -4942,20 +5344,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -4966,7 +5368,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -4988,20 +5390,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -5012,7 +5414,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -5034,20 +5436,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -5058,7 +5460,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -5080,20 +5482,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -5104,7 +5506,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -5126,20 +5528,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -5150,7 +5552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -5172,20 +5574,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -5196,7 +5598,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -5218,20 +5620,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -5242,7 +5644,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -5262,22 +5664,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4400-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -5288,7 +5692,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -5310,20 +5714,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -5334,7 +5738,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -5356,20 +5760,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -5380,7 +5784,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -5402,20 +5806,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -5426,7 +5830,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -5448,20 +5852,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -5472,7 +5876,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -5494,20 +5898,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -5518,7 +5922,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -5540,20 +5944,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -5564,7 +5968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -5586,20 +5990,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -5610,7 +6014,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -5632,20 +6036,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -5656,7 +6060,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -5678,20 +6082,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -5702,7 +6106,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -5724,20 +6128,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -5748,7 +6152,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -5770,20 +6174,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -5794,7 +6198,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -5816,20 +6220,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -5840,7 +6244,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -5862,20 +6266,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -5886,7 +6290,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -5908,20 +6312,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -5932,7 +6336,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -5954,20 +6358,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -5978,7 +6382,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -6000,20 +6404,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>122</v>
       </c>
@@ -6024,7 +6428,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -6046,20 +6450,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -6070,7 +6474,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>126</v>
       </c>
@@ -6092,20 +6496,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -6116,7 +6520,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -6138,20 +6542,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -6162,7 +6566,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -6184,20 +6588,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -6208,7 +6612,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -6230,20 +6634,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -6254,7 +6658,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -6276,20 +6680,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -6300,7 +6704,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -6322,20 +6726,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -6346,7 +6750,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -6368,20 +6772,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -6392,7 +6796,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -6414,20 +6818,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -6438,7 +6842,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>124</v>
       </c>
@@ -6460,20 +6864,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -6484,7 +6888,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>125</v>
       </c>
@@ -6506,20 +6910,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -6530,7 +6934,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -6552,20 +6956,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -6576,7 +6980,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -6598,20 +7002,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -6622,7 +7026,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -6644,20 +7048,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -6668,7 +7072,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -6690,20 +7094,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -6714,7 +7118,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -6736,20 +7140,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -6760,7 +7164,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -6782,20 +7186,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -6806,7 +7210,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>124</v>
       </c>
